--- a/extras/datos/areas.xlsx
+++ b/extras/datos/areas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tutorias\extras\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F7824E-B828-4274-8A3C-F757B4896971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22BDD15A-C329-461B-9F57-FA849398C5A8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,8 +99,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,22 +436,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0115E2EF-54CA-4BAB-80CD-3E1D4CE34D2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
-    <col min="4" max="4" width="131.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="131.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -435,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>31462</v>
       </c>
@@ -450,7 +477,7 @@
         <v>INSERT INTO areas (idAreas,Nombre,Descripcion) values (31462,'Arquitectura y construcción','Ejemplo de descripción');</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>27313</v>
       </c>
@@ -465,7 +492,7 @@
         <v>INSERT INTO areas (idAreas,Nombre,Descripcion) values (27313,'Contabilidad y Gestión de Impuestos','Ejemplo de descripción');</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>48193</v>
       </c>
@@ -480,7 +507,7 @@
         <v>INSERT INTO areas (idAreas,Nombre,Descripcion) values (48193,'Ingeniería y Tecnología','Ejemplo de descripción');</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>52767</v>
       </c>
@@ -491,11 +518,11 @@
         <v>7</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("INSERT INTO areas (idAreas,Nombre,Descripcion) values (",A5,",'",B5,"','",C5,"');")</f>
         <v>INSERT INTO areas (idAreas,Nombre,Descripcion) values (52767,'Administración y Gestión de Empresas','Ejemplo de descripción');</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>33604</v>
       </c>
